--- a/DB Specification/ENCLICK_테이블 명세서_ORDER_MST.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_ORDER_MST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Downloads\ENCLICK_테이블명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA84CB-1035-483F-B767-16BEC685DD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB47B66-5AB2-45D0-B831-D334FA497B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +457,14 @@
   </si>
   <si>
     <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT(getdate())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +735,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1180,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -1294,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -1314,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -1431,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1449,10 +1456,10 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>62</v>
@@ -1477,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>76</v>
@@ -1486,7 +1493,7 @@
         <v>79</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>70</v>
@@ -1501,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -1514,16 +1521,16 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>70</v>
@@ -1538,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1551,16 +1558,16 @@
         <v>7</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>70</v>
@@ -1575,10 +1582,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>1</v>
@@ -1591,7 +1598,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="37"/>
@@ -1604,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1</v>
@@ -1620,7 +1627,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" s="10"/>
       <c r="M20" s="37"/>
@@ -1636,12 +1643,14 @@
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1814,8 +1823,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
-        <v>93</v>
+      <c r="C32" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
@@ -1831,7 +1840,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="47" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2144,10 +2153,10 @@
         <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2155,13 +2164,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2169,13 +2178,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2387,7 +2396,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2" t="str">
         <f>IF(C36&lt;&gt;"",",","")</f>
@@ -2404,7 +2413,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>67</v>
@@ -2412,7 +2421,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>IF(C39&lt;&gt;"",",","")</f>

--- a/DB Specification/ENCLICK_테이블 명세서_ORDER_MST.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_ORDER_MST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB47B66-5AB2-45D0-B831-D334FA497B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44721F4-E8DE-450C-9348-9B9D57543F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>PROD_ID</t>
-  </si>
-  <si>
-    <t>PROD_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -465,6 +462,10 @@
   </si>
   <si>
     <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +736,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,9 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1187,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1484,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>76</v>
@@ -1508,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -1521,13 +1519,13 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>95</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>88</v>
@@ -1558,13 +1556,13 @@
         <v>7</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>81</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>89</v>
@@ -1643,13 +1641,13 @@
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
@@ -1674,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1823,7 +1821,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1840,7 +1838,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1935,7 +1933,7 @@
     <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'상품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_MST', @level2type=N'COLUMN',@level2name=N'PROD_ID' 
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'상품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_MST', @level2type=N'COLUMN',@level2name=N'PROD_CD' 
 </v>
       </c>
       <c r="J43" s="4"/>
@@ -2005,7 +2003,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2153,7 +2151,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>98</v>
@@ -2164,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2181,10 +2179,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2311,7 +2309,7 @@
       <c r="B25" s="29"/>
       <c r="C25" s="23" t="str">
         <f>B10</f>
-        <v>PROD_ID</v>
+        <v>PROD_CD</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>IF(C26&lt;&gt;"",",","")</f>
@@ -2350,7 +2348,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="35" t="str">
         <f>D10</f>
-        <v>PROD_ID</v>
+        <v>PROD_CD</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>IF(C30&lt;&gt;"",",","")</f>
@@ -2413,7 +2411,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>67</v>
@@ -2421,7 +2419,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>IF(C39&lt;&gt;"",",","")</f>
